--- a/SRAM/Content/Report/73156_reporte Por ejecutivo.xlsx
+++ b/SRAM/Content/Report/73156_reporte Por ejecutivo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <x:si>
     <x:t>Total de Grabaciones Inválidas Por Ejecutivo</x:t>
   </x:si>
@@ -34,7 +34,13 @@
     <x:t>Porcentaje Inválidas</x:t>
   </x:si>
   <x:si>
-    <x:t>Lopez, Benny</x:t>
+    <x:t>Solano,Gregory</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Montás,Enmanuel</x:t>
   </x:si>
   <x:si>
     <x:t>100%</x:t>
@@ -43,97 +49,25 @@
     <x:t>TOTAL:</x:t>
   </x:si>
   <x:si>
-    <x:t>Garcia, Melvi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ramírez, Pedro</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rojas, Zelidet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alcantara, Edna</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Solano, Gregory</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Taveras, Manuel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Camejo, Jonathan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Montás, Enmanuel</x:t>
-  </x:si>
-  <x:si>
     <x:t>50%</x:t>
   </x:si>
   <x:si>
-    <x:t>Agramonte, Jazmin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vizcaino, Genesis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Diaz, Victor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nina, Yosselyn</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tejada, Gilberto</x:t>
-  </x:si>
-  <x:si>
-    <x:t>De La Rosa, Ronny</x:t>
-  </x:si>
-  <x:si>
-    <x:t>67%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Llanes, Arfrancis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>27%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Baez, Isaac</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perez, Kendra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Santos, Scarlet</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Robles, Carolina</x:t>
+    <x:t>Llanes,Arfrancis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Soto,Lidice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pinales,Stephanie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Victoriano,Yuleisy</x:t>
   </x:si>
   <x:si>
     <x:t>25%</x:t>
   </x:si>
   <x:si>
-    <x:t>Pinales, Stephanie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Severino, Penelope</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18%</x:t>
+    <x:t>29%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -324,15 +258,21 @@
     <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -342,12 +282,6 @@
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -357,10 +291,10 @@
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
@@ -394,8 +328,12 @@
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
@@ -406,6 +344,10 @@
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -418,14 +360,6 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -438,11 +372,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -753,7 +687,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E31"/>
+  <x:dimension ref="A1:E13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -797,438 +731,164 @@
     </x:row>
     <x:row r="4" spans="1:5">
       <x:c r="A4" s="5" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E4" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="9" t="s"/>
+      <x:c r="B5" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C5" s="7" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D5" s="7" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="8" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="12" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="10" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="10" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="11" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="5" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B4" s="6" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" s="6" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D4" s="6" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E4" s="7" t="s">
+      <x:c r="C7" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D7" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="10" t="n">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C5" s="8" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D5" s="8" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E5" s="9" t="s">
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="15" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B8" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="13" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D8" s="13" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E8" s="14" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="11" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="9" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B9" s="7" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C9" s="7" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D9" s="7" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E9" s="8" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="B7" s="6" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D7" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E7" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="11" t="s"/>
-      <x:c r="B8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="11" t="s"/>
-      <x:c r="B9" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E9" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
-      <x:c r="A10" s="11" t="s"/>
+      <x:c r="A10" s="5" t="s"/>
       <x:c r="B10" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E10" s="12" t="s">
-        <x:v>10</x:v>
+      <x:c r="E10" s="6" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
-      <x:c r="A11" s="11" t="s"/>
+      <x:c r="A11" s="5" t="s"/>
       <x:c r="B11" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
-        <x:v>3</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E11" s="12" t="s">
+      <x:c r="E11" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:5">
+      <x:c r="A12" s="12" t="n">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B12" s="10" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="11" t="s"/>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C12" s="10" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D12" s="10" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E12" s="11" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E12" s="12" t="s">
+    </x:row>
+    <x:row r="13" spans="1:5">
+      <x:c r="A13" s="16" t="s"/>
+      <x:c r="B13" s="16" t="s">
         <x:v>10</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="5" t="s"/>
-      <x:c r="B13" s="6" t="s">
+      <x:c r="C13" s="16" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="16" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E13" s="17" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="C13" s="6" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D13" s="6" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E13" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="11" t="s"/>
-      <x:c r="B14" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E14" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="11" t="s"/>
-      <x:c r="B15" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E15" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="15" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B16" s="13" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C16" s="13" t="n">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="D16" s="13" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E16" s="14" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="11" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E17" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="11" t="s"/>
-      <x:c r="B18" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C18" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E18" s="12" t="s">
-        <x:v>24</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="5" t="s"/>
-      <x:c r="B19" s="6" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C19" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E19" s="7" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="5" t="s"/>
-      <x:c r="B20" s="6" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C20" s="6" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="D20" s="6" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E20" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="11" t="s"/>
-      <x:c r="B21" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E21" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="10" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B22" s="8" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C22" s="8" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D22" s="8" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E22" s="9" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="11" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C23" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E23" s="12" t="s">
-        <x:v>31</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="11" t="s"/>
-      <x:c r="B24" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="C24" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E24" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="11" t="s"/>
-      <x:c r="B25" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="C25" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E25" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="5" t="s"/>
-      <x:c r="B26" s="6" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C26" s="6" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D26" s="6" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E26" s="7" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="5" t="s"/>
-      <x:c r="B27" s="6" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="C27" s="6" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D27" s="6" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E27" s="7" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="11" t="s"/>
-      <x:c r="B28" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E28" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="11" t="s"/>
-      <x:c r="B29" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E29" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="15" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B30" s="13" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C30" s="13" t="n">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D30" s="13" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E30" s="14" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:5">
-      <x:c r="A31" s="16" t="s"/>
-      <x:c r="B31" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C31" s="16" t="n">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D31" s="16" t="n">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E31" s="17" t="s">
-        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRAM/Content/Report/73156_reporte Por ejecutivo.xlsx
+++ b/SRAM/Content/Report/73156_reporte Por ejecutivo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Total de Grabaciones Inválidas Por Ejecutivo</x:t>
   </x:si>
@@ -34,13 +34,19 @@
     <x:t>Porcentaje Inválidas</x:t>
   </x:si>
   <x:si>
-    <x:t>Solano,Gregory</x:t>
+    <x:t>Irina Rafael</x:t>
   </x:si>
   <x:si>
     <x:t>0%</x:t>
   </x:si>
   <x:si>
-    <x:t>Montás,Enmanuel</x:t>
+    <x:t>Gregory Solano</x:t>
+  </x:si>
+  <x:si>
+    <x:t>33%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stephanie Pinales</x:t>
   </x:si>
   <x:si>
     <x:t>100%</x:t>
@@ -49,25 +55,25 @@
     <x:t>TOTAL:</x:t>
   </x:si>
   <x:si>
-    <x:t>50%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Llanes,Arfrancis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Soto,Lidice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pinales,Stephanie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Victoriano,Yuleisy</x:t>
+    <x:t>40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lidice Soto</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Felix Berroa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fiater Medina</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuleisy Victoriano</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14%</x:t>
   </x:si>
   <x:si>
     <x:t>25%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>29%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -77,7 +83,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="6">
+  <x:fonts count="7">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -90,21 +96,29 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
+      <x:name val="Cambria"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
-      <x:color rgb="FFFFFFFF"/>
-      <x:name val="Calibri"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
@@ -112,7 +126,7 @@
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FFFF0000"/>
-      <x:name val="Calibri"/>
+      <x:name val="Cambria"/>
       <x:family val="2"/>
     </x:font>
     <x:font>
@@ -124,21 +138,15 @@
       <x:family val="2"/>
     </x:font>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="2">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="gray125"/>
     </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF00008B"/>
-        <x:bgColor rgb="FF00008B"/>
-      </x:patternFill>
-    </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="13">
     <x:border diagonalUp="0" diagonalDown="0">
       <x:left style="none">
         <x:color rgb="FF000000"/>
@@ -166,6 +174,57 @@
       <x:top style="none">
         <x:color rgb="FF000000"/>
       </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
       <x:bottom style="none">
         <x:color rgb="FF000000"/>
       </x:bottom>
@@ -178,7 +237,7 @@
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thick">
-        <x:color rgb="FF00008B"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="none">
         <x:color rgb="FF000000"/>
@@ -212,7 +271,7 @@
         <x:color rgb="FF000000"/>
       </x:left>
       <x:right style="thick">
-        <x:color rgb="FF00008B"/>
+        <x:color rgb="FF000000"/>
       </x:right>
       <x:top style="thick">
         <x:color rgb="FF00008B"/>
@@ -241,155 +300,237 @@
         <x:color rgb="FF000000"/>
       </x:diagonal>
     </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="FF00008B"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellStyleXfs count="23">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+  <x:cellXfs count="23">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -399,7 +540,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -682,7 +823,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -697,7 +838,7 @@
     <x:col min="2" max="2" width="17.710625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="16.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="18.710625" style="20" customWidth="1"/>
+    <x:col min="5" max="5" width="18.710625" style="21" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
@@ -710,9 +851,9 @@
       <x:c r="B2" s="19" t="s"/>
       <x:c r="C2" s="19" t="s"/>
       <x:c r="D2" s="19" t="s"/>
-      <x:c r="E2" s="18" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:5">
+      <x:c r="E2" s="20" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:5" s="22" customFormat="1">
       <x:c r="A3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -733,162 +874,158 @@
       <x:c r="A4" s="5" t="n">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="B4" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="6" t="s">
+      <x:c r="E4" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
-      <x:c r="A5" s="9" t="s"/>
-      <x:c r="B5" s="7" t="s">
+      <x:c r="A5" s="10" t="s"/>
+      <x:c r="B5" s="8" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="7" t="n">
+      <x:c r="C5" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D5" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D5" s="7" t="n">
+      <x:c r="E5" s="9" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="10" t="s"/>
+      <x:c r="B6" s="8" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C6" s="8" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="8" t="s">
+      <x:c r="D6" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E6" s="9" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5">
+      <x:c r="A7" s="13" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B7" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C7" s="11" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D7" s="11" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="12" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5">
+      <x:c r="A8" s="10" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B8" s="8" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C8" s="8" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D8" s="8" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E8" s="9" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="12" t="n">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="10" t="n">
+    <x:row r="9" spans="1:5">
+      <x:c r="A9" s="5" t="s"/>
+      <x:c r="B9" s="6" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C9" s="6" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D6" s="10" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E6" s="11" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="5" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="n">
+      <x:c r="D9" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="s">
+      <x:c r="E9" s="7" t="s">
         <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="15" t="n">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B8" s="13" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C8" s="13" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D8" s="13" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E8" s="14" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="9" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B9" s="7" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D9" s="7" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E9" s="8" t="s">
-        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
       <x:c r="A10" s="5" t="s"/>
-      <x:c r="B10" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="n">
+      <x:c r="B10" s="6" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C10" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="n">
+      <x:c r="D10" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E10" s="6" t="s">
+      <x:c r="E10" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
       <x:c r="A11" s="5" t="s"/>
-      <x:c r="B11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="n">
+      <x:c r="B11" s="6" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D11" s="6" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E11" s="6" t="s">
+      <x:c r="E11" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
-      <x:c r="A12" s="12" t="n">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B12" s="10" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C12" s="10" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D12" s="10" t="n">
+      <x:c r="A12" s="16" t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B12" s="14" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C12" s="14" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D12" s="14" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E12" s="11" t="s">
-        <x:v>16</x:v>
+      <x:c r="E12" s="15" t="s">
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
-      <x:c r="A13" s="16" t="s"/>
-      <x:c r="B13" s="16" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C13" s="16" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D13" s="16" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E13" s="17" t="s">
-        <x:v>17</x:v>
+      <x:c r="A13" s="17" t="s"/>
+      <x:c r="B13" s="17" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C13" s="17" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="17" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E13" s="18" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
